--- a/CompCars_Original/ResNet/wronglyClassifications/Data_Full_LayerCAM_ResNet_CompCars_Original_ocrnet_hr48_carparts_noflip_wrongClassified_21_08_2022.xlsx
+++ b/CompCars_Original/ResNet/wronglyClassifications/Data_Full_LayerCAM_ResNet_CompCars_Original_ocrnet_hr48_carparts_noflip_wrongClassified_21_08_2022.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,445 +436,507 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>segments</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>PercActivationsOriginal</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>PercActivationsCorrect</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>PercActivationsIncorrect</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>PercActivationsCorrected</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>PercActivationsFixed</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>background</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="C2" t="n">
         <v>0.2233302586436274</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>0.2225387910153632</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>0.2919640402762031</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.2943420731830562</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>0.2233573688965221</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>back_bumper</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="C3" t="n">
         <v>0.006806036861633729</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>0.006807684204421871</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>0.006663184063669754</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.006656611287645864</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>0.006805961930113767</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>back_glass</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="C4" t="n">
         <v>0.01530389343765177</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>0.01528845829971843</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>0.01664238391856818</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.01811944281382678</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>0.01532073233003003</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>back_left_door</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="C5" t="n">
         <v>0.004752661513772372</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>0.004755584483528676</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>0.004499190037733452</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.004445816133578705</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>0.004752053036053061</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>back_left_light</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="C6" t="n">
         <v>0.005117873612728906</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>0.005122014261365026</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>0.00475880854909228</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.004694214571778435</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>0.00511713722297778</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>back_right_door</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="C7" t="n">
         <v>0.006451775790282372</v>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>0.006455739033853222</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>0.006108094780364957</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.006008943070878997</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>0.006450645432535286</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>back_right_light</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="C8" t="n">
         <v>0.006753712319599705</v>
       </c>
-      <c r="C8" t="n">
+      <c r="D8" t="n">
         <v>0.006759898182647172</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>0.006217292182568843</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.006152862295985334</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>0.006752977800529674</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="inlineStr">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>front_bumper</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="C9" t="n">
         <v>0.3006371701245291</v>
       </c>
-      <c r="C9" t="n">
+      <c r="D9" t="n">
         <v>0.3009661120686788</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>0.2721122769282146</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0.2689558424985024</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>0.300601185872424</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>front_glass</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="C10" t="n">
         <v>0.15128062558172</v>
       </c>
-      <c r="C10" t="n">
+      <c r="D10" t="n">
         <v>0.1515059919376195</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>0.1317375075744001</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.1367836495822203</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>0.1513381530387956</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="inlineStr">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>front_left_door</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="C11" t="n">
         <v>0.002516709738565942</v>
       </c>
-      <c r="C11" t="n">
+      <c r="D11" t="n">
         <v>0.002519074956010316</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>0.002311604928471731</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.002259547025147021</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>0.002516116263631166</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>front_left_light</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="C12" t="n">
         <v>0.02282024236928663</v>
       </c>
-      <c r="C12" t="n">
+      <c r="D12" t="n">
         <v>0.02284092656009624</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>0.02102656921756709</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>0.02048019556302745</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>0.02281401355390451</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="inlineStr">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>front_right_door</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="C13" t="n">
         <v>0.002408039705547265</v>
       </c>
-      <c r="C13" t="n">
+      <c r="D13" t="n">
         <v>0.00241146003395716</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>0.00211143872679203</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>0.002078263405427385</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>0.002407661497428507</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>front_right_light</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="C14" t="n">
         <v>0.01799456682363838</v>
       </c>
-      <c r="C14" t="n">
+      <c r="D14" t="n">
         <v>0.01801651068420853</v>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
         <v>0.01609165875669511</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>0.01561369048393108</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>0.0179891178491045</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="inlineStr">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>hood</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="C15" t="n">
         <v>0.2227139906715859</v>
       </c>
-      <c r="C15" t="n">
+      <c r="D15" t="n">
         <v>0.2229809157399301</v>
       </c>
-      <c r="D15" t="n">
+      <c r="E15" t="n">
         <v>0.1995670214225842</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.1960082826960557</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
         <v>0.2226734200358374</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>left_mirror</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="C16" t="n">
         <v>0.003420598726329381</v>
       </c>
-      <c r="C16" t="n">
+      <c r="D16" t="n">
         <v>0.003422737646368247</v>
       </c>
-      <c r="D16" t="n">
+      <c r="E16" t="n">
         <v>0.003235117772169281</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>0.003331683613353148</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
         <v>0.003421699604440826</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="inlineStr">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>right_mirror</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="C17" t="n">
         <v>0.002163653280140601</v>
       </c>
-      <c r="C17" t="n">
+      <c r="D17" t="n">
         <v>0.002165849682504913</v>
       </c>
-      <c r="D17" t="n">
+      <c r="E17" t="n">
         <v>0.001973187625114235</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>0.001921081046757907</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>0.002163059250296594</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="inlineStr">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>tailgate</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="C18" t="n">
         <v>0.0002387190762089984</v>
       </c>
-      <c r="C18" t="n">
+      <c r="D18" t="n">
         <v>0.0002398000790152947</v>
       </c>
-      <c r="D18" t="n">
+      <c r="E18" t="n">
         <v>0.0001449776420656366</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>0.0001370077522941128</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
         <v>0.0002386282171941277</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="inlineStr">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>trunk</t>
         </is>
       </c>
-      <c r="B19" t="n">
+      <c r="C19" t="n">
         <v>0.005267788499280173</v>
       </c>
-      <c r="C19" t="n">
+      <c r="D19" t="n">
         <v>0.005182042473122698</v>
       </c>
-      <c r="D19" t="n">
+      <c r="E19" t="n">
         <v>0.01270343567547521</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>0.01192902387690292</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
         <v>0.005258959984063566</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>wheel</t>
         </is>
       </c>
-      <c r="B20" t="n">
+      <c r="C20" t="n">
         <v>2.168372745324416e-05</v>
       </c>
-      <c r="C20" t="n">
+      <c r="D20" t="n">
         <v>2.04091296450094e-05</v>
       </c>
-      <c r="D20" t="n">
+      <c r="E20" t="n">
         <v>0.0001322131597581288</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>8.177837686835217e-05</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
         <v>2.110875655402823e-05</v>
       </c>
     </row>
